--- a/group2data/경제/인구/인구수/전국인구(from 행정안전부)/전국인구수(주민등록인구 및 세대현황).xlsx
+++ b/group2data/경제/인구/인구수/전국인구(from 행정안전부)/전국인구수(주민등록인구 및 세대현황).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3팀(경제)\인구수\행정안전부 전국인구\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYJ\Documents\GitHub\Group2\group2data\경제\인구\인구수\전국인구(from 행정안전부)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5735CEE7-51C2-4667-AD04-D0B89DEF1D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34663988-A4BF-4584-9F0C-EBF1D995690C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0857F160-EA2B-49DC-9B40-34CD16621CF3}"/>
+    <workbookView xWindow="1740" yWindow="1740" windowWidth="2388" windowHeight="564" xr2:uid="{0857F160-EA2B-49DC-9B40-34CD16621CF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15998,6 +15998,7 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -16348,11 +16349,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B36931-BD3B-4FF4-B753-86182C0BA6C8}">
   <dimension ref="A1:PQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KY1" workbookViewId="0">
-      <selection activeCell="LL8" sqref="LL8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:433" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -41475,89 +41482,46 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="PC2:PE2"/>
-    <mergeCell ref="PF2:PH2"/>
-    <mergeCell ref="PI2:PK2"/>
-    <mergeCell ref="PL2:PN2"/>
-    <mergeCell ref="PO2:PQ2"/>
-    <mergeCell ref="OK2:OM2"/>
-    <mergeCell ref="ON2:OP2"/>
-    <mergeCell ref="OQ2:OS2"/>
-    <mergeCell ref="OT2:OV2"/>
-    <mergeCell ref="OW2:OY2"/>
-    <mergeCell ref="OZ2:PB2"/>
-    <mergeCell ref="NS2:NU2"/>
-    <mergeCell ref="NV2:NX2"/>
-    <mergeCell ref="NY2:OA2"/>
-    <mergeCell ref="OB2:OD2"/>
-    <mergeCell ref="OE2:OG2"/>
-    <mergeCell ref="OH2:OJ2"/>
-    <mergeCell ref="NA2:NC2"/>
-    <mergeCell ref="ND2:NF2"/>
-    <mergeCell ref="NG2:NI2"/>
-    <mergeCell ref="NJ2:NL2"/>
-    <mergeCell ref="NM2:NO2"/>
-    <mergeCell ref="NP2:NR2"/>
-    <mergeCell ref="MI2:MK2"/>
-    <mergeCell ref="ML2:MN2"/>
-    <mergeCell ref="MO2:MQ2"/>
-    <mergeCell ref="MR2:MT2"/>
-    <mergeCell ref="MU2:MW2"/>
-    <mergeCell ref="MX2:MZ2"/>
-    <mergeCell ref="LQ2:LS2"/>
-    <mergeCell ref="LT2:LV2"/>
-    <mergeCell ref="LW2:LY2"/>
-    <mergeCell ref="LZ2:MB2"/>
-    <mergeCell ref="MC2:ME2"/>
-    <mergeCell ref="MF2:MH2"/>
-    <mergeCell ref="KY2:LA2"/>
-    <mergeCell ref="LB2:LD2"/>
-    <mergeCell ref="LE2:LG2"/>
-    <mergeCell ref="LH2:LJ2"/>
-    <mergeCell ref="LK2:LM2"/>
-    <mergeCell ref="LN2:LP2"/>
-    <mergeCell ref="KG2:KI2"/>
-    <mergeCell ref="KJ2:KL2"/>
-    <mergeCell ref="KM2:KO2"/>
-    <mergeCell ref="KP2:KR2"/>
-    <mergeCell ref="KS2:KU2"/>
-    <mergeCell ref="KV2:KX2"/>
-    <mergeCell ref="JO2:JQ2"/>
-    <mergeCell ref="JR2:JT2"/>
-    <mergeCell ref="JU2:JW2"/>
-    <mergeCell ref="JX2:JZ2"/>
-    <mergeCell ref="KA2:KC2"/>
-    <mergeCell ref="KD2:KF2"/>
-    <mergeCell ref="IW2:IY2"/>
-    <mergeCell ref="IZ2:JB2"/>
-    <mergeCell ref="JC2:JE2"/>
-    <mergeCell ref="JF2:JH2"/>
-    <mergeCell ref="JI2:JK2"/>
-    <mergeCell ref="JL2:JN2"/>
-    <mergeCell ref="IE2:IG2"/>
-    <mergeCell ref="IH2:IJ2"/>
-    <mergeCell ref="IK2:IM2"/>
-    <mergeCell ref="IN2:IP2"/>
-    <mergeCell ref="IQ2:IS2"/>
-    <mergeCell ref="IT2:IV2"/>
-    <mergeCell ref="HM2:HO2"/>
-    <mergeCell ref="HP2:HR2"/>
-    <mergeCell ref="HS2:HU2"/>
-    <mergeCell ref="HV2:HX2"/>
-    <mergeCell ref="HY2:IA2"/>
-    <mergeCell ref="IB2:ID2"/>
-    <mergeCell ref="GL2:GN2"/>
-    <mergeCell ref="GO2:GQ2"/>
-    <mergeCell ref="GR2:GT2"/>
-    <mergeCell ref="GU2:GW2"/>
-    <mergeCell ref="GX2:GZ2"/>
-    <mergeCell ref="HA2:HC2"/>
-    <mergeCell ref="FB2:FD2"/>
-    <mergeCell ref="FE2:FG2"/>
-    <mergeCell ref="FH2:FJ2"/>
-    <mergeCell ref="FK2:FM2"/>
-    <mergeCell ref="FN2:FP2"/>
-    <mergeCell ref="FQ2:FS2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="BV2:BX2"/>
+    <mergeCell ref="BY2:CA2"/>
+    <mergeCell ref="CB2:CD2"/>
+    <mergeCell ref="CE2:CG2"/>
+    <mergeCell ref="CH2:CJ2"/>
+    <mergeCell ref="CK2:CM2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BS2:BU2"/>
+    <mergeCell ref="DF2:DH2"/>
+    <mergeCell ref="DI2:DK2"/>
+    <mergeCell ref="DL2:DN2"/>
+    <mergeCell ref="DO2:DQ2"/>
+    <mergeCell ref="CN2:CP2"/>
+    <mergeCell ref="CQ2:CS2"/>
+    <mergeCell ref="CT2:CV2"/>
+    <mergeCell ref="CW2:CY2"/>
+    <mergeCell ref="CZ2:DB2"/>
+    <mergeCell ref="DC2:DE2"/>
     <mergeCell ref="DR2:DT2"/>
     <mergeCell ref="DU2:DW2"/>
     <mergeCell ref="DX2:DZ2"/>
@@ -41579,46 +41543,89 @@
     <mergeCell ref="EY2:FA2"/>
     <mergeCell ref="EJ2:EL2"/>
     <mergeCell ref="EM2:EO2"/>
-    <mergeCell ref="DF2:DH2"/>
-    <mergeCell ref="DI2:DK2"/>
-    <mergeCell ref="DL2:DN2"/>
-    <mergeCell ref="DO2:DQ2"/>
-    <mergeCell ref="CN2:CP2"/>
-    <mergeCell ref="CQ2:CS2"/>
-    <mergeCell ref="CT2:CV2"/>
-    <mergeCell ref="CW2:CY2"/>
-    <mergeCell ref="CZ2:DB2"/>
-    <mergeCell ref="DC2:DE2"/>
-    <mergeCell ref="BV2:BX2"/>
-    <mergeCell ref="BY2:CA2"/>
-    <mergeCell ref="CB2:CD2"/>
-    <mergeCell ref="CE2:CG2"/>
-    <mergeCell ref="CH2:CJ2"/>
-    <mergeCell ref="CK2:CM2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BS2:BU2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="GL2:GN2"/>
+    <mergeCell ref="GO2:GQ2"/>
+    <mergeCell ref="GR2:GT2"/>
+    <mergeCell ref="GU2:GW2"/>
+    <mergeCell ref="GX2:GZ2"/>
+    <mergeCell ref="HA2:HC2"/>
+    <mergeCell ref="FB2:FD2"/>
+    <mergeCell ref="FE2:FG2"/>
+    <mergeCell ref="FH2:FJ2"/>
+    <mergeCell ref="FK2:FM2"/>
+    <mergeCell ref="FN2:FP2"/>
+    <mergeCell ref="FQ2:FS2"/>
+    <mergeCell ref="IE2:IG2"/>
+    <mergeCell ref="IH2:IJ2"/>
+    <mergeCell ref="IK2:IM2"/>
+    <mergeCell ref="IN2:IP2"/>
+    <mergeCell ref="IQ2:IS2"/>
+    <mergeCell ref="IT2:IV2"/>
+    <mergeCell ref="HM2:HO2"/>
+    <mergeCell ref="HP2:HR2"/>
+    <mergeCell ref="HS2:HU2"/>
+    <mergeCell ref="HV2:HX2"/>
+    <mergeCell ref="HY2:IA2"/>
+    <mergeCell ref="IB2:ID2"/>
+    <mergeCell ref="JO2:JQ2"/>
+    <mergeCell ref="JR2:JT2"/>
+    <mergeCell ref="JU2:JW2"/>
+    <mergeCell ref="JX2:JZ2"/>
+    <mergeCell ref="KA2:KC2"/>
+    <mergeCell ref="KD2:KF2"/>
+    <mergeCell ref="IW2:IY2"/>
+    <mergeCell ref="IZ2:JB2"/>
+    <mergeCell ref="JC2:JE2"/>
+    <mergeCell ref="JF2:JH2"/>
+    <mergeCell ref="JI2:JK2"/>
+    <mergeCell ref="JL2:JN2"/>
+    <mergeCell ref="KY2:LA2"/>
+    <mergeCell ref="LB2:LD2"/>
+    <mergeCell ref="LE2:LG2"/>
+    <mergeCell ref="LH2:LJ2"/>
+    <mergeCell ref="LK2:LM2"/>
+    <mergeCell ref="LN2:LP2"/>
+    <mergeCell ref="KG2:KI2"/>
+    <mergeCell ref="KJ2:KL2"/>
+    <mergeCell ref="KM2:KO2"/>
+    <mergeCell ref="KP2:KR2"/>
+    <mergeCell ref="KS2:KU2"/>
+    <mergeCell ref="KV2:KX2"/>
+    <mergeCell ref="MI2:MK2"/>
+    <mergeCell ref="ML2:MN2"/>
+    <mergeCell ref="MO2:MQ2"/>
+    <mergeCell ref="MR2:MT2"/>
+    <mergeCell ref="MU2:MW2"/>
+    <mergeCell ref="MX2:MZ2"/>
+    <mergeCell ref="LQ2:LS2"/>
+    <mergeCell ref="LT2:LV2"/>
+    <mergeCell ref="LW2:LY2"/>
+    <mergeCell ref="LZ2:MB2"/>
+    <mergeCell ref="MC2:ME2"/>
+    <mergeCell ref="MF2:MH2"/>
+    <mergeCell ref="NS2:NU2"/>
+    <mergeCell ref="NV2:NX2"/>
+    <mergeCell ref="NY2:OA2"/>
+    <mergeCell ref="OB2:OD2"/>
+    <mergeCell ref="OE2:OG2"/>
+    <mergeCell ref="OH2:OJ2"/>
+    <mergeCell ref="NA2:NC2"/>
+    <mergeCell ref="ND2:NF2"/>
+    <mergeCell ref="NG2:NI2"/>
+    <mergeCell ref="NJ2:NL2"/>
+    <mergeCell ref="NM2:NO2"/>
+    <mergeCell ref="NP2:NR2"/>
+    <mergeCell ref="PC2:PE2"/>
+    <mergeCell ref="PF2:PH2"/>
+    <mergeCell ref="PI2:PK2"/>
+    <mergeCell ref="PL2:PN2"/>
+    <mergeCell ref="PO2:PQ2"/>
+    <mergeCell ref="OK2:OM2"/>
+    <mergeCell ref="ON2:OP2"/>
+    <mergeCell ref="OQ2:OS2"/>
+    <mergeCell ref="OT2:OV2"/>
+    <mergeCell ref="OW2:OY2"/>
+    <mergeCell ref="OZ2:PB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
